--- a/documents/lecture_00/1125_schedule_2017.xlsx
+++ b/documents/lecture_00/1125_schedule_2017.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26230"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abel/Dropbox/courses/1.125_F2017/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnwilliams/MIT/Courses/compuxo/documents/lecture_00/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5D214B-B1AE-4146-A37D-94167AFE6008}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20080" yWindow="440" windowWidth="31040" windowHeight="27940" tabRatio="500"/>
+    <workbookView xWindow="4760" yWindow="3320" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
   <si>
     <t>SES #</t>
   </si>
@@ -74,18 +75,9 @@
     <t>LECT 15</t>
   </si>
   <si>
-    <t>HW06 DUE, HW07 OUT</t>
-  </si>
-  <si>
     <t>LECT 16</t>
   </si>
   <si>
-    <t>HW07 DUE, HW08 OUT</t>
-  </si>
-  <si>
-    <t>HW08 DUE, HW09 OUT</t>
-  </si>
-  <si>
     <t>LECT 17</t>
   </si>
   <si>
@@ -98,9 +90,6 @@
     <t>Project Presentations</t>
   </si>
   <si>
-    <t>Holiday</t>
-  </si>
-  <si>
     <t>LECT 10</t>
   </si>
   <si>
@@ -152,9 +141,6 @@
     <t>Project - Phase 3</t>
   </si>
   <si>
-    <t>Columbus Day</t>
-  </si>
-  <si>
     <t>LECT 19</t>
   </si>
   <si>
@@ -164,18 +150,9 @@
     <t>LECT 21</t>
   </si>
   <si>
-    <t>Thanksgiving Vacation</t>
-  </si>
-  <si>
     <t>Hardware &amp; Devices</t>
   </si>
   <si>
-    <t>Hardware &amp; Devices I</t>
-  </si>
-  <si>
-    <t>Hardware &amp; Devices II</t>
-  </si>
-  <si>
     <t>HW09 is Report 2 on Kogs</t>
   </si>
   <si>
@@ -185,30 +162,9 @@
     <t>Cloud Computation</t>
   </si>
   <si>
-    <t>The Full Stack - Node</t>
-  </si>
-  <si>
-    <t>Virtual Machines - AWS</t>
-  </si>
-  <si>
-    <t>Representational State Transfer - REST</t>
-  </si>
-  <si>
-    <t>Containers</t>
-  </si>
-  <si>
-    <t>HW00: Install VSCode</t>
-  </si>
-  <si>
     <t>HW01: AWS VM - HTTP Server</t>
   </si>
   <si>
-    <t>HW02: AWS VM - REST API</t>
-  </si>
-  <si>
-    <t>HW03: HTTP Server In Container</t>
-  </si>
-  <si>
     <t>Package Management - NPM</t>
   </si>
   <si>
@@ -224,18 +180,9 @@
     <t>HW04: Three Tier App</t>
   </si>
   <si>
-    <t>Microservices</t>
-  </si>
-  <si>
     <t>Collaboration - GIT, CI, CD</t>
   </si>
   <si>
-    <t>Blockchain</t>
-  </si>
-  <si>
-    <t>Merkle Trees</t>
-  </si>
-  <si>
     <t>ML I</t>
   </si>
   <si>
@@ -248,18 +195,12 @@
     <t>1.125 Software Engineering &amp; Architecting</t>
   </si>
   <si>
-    <t>Coordination - Asynchronous Computation</t>
-  </si>
-  <si>
     <t>Blockchain &amp; Machine Learning (ML)</t>
   </si>
   <si>
     <t>HW08: Project Deliverable 02</t>
   </si>
   <si>
-    <t>Pub-Sub, Streaming, Web Sockets - Kafka</t>
-  </si>
-  <si>
     <t>HW 04 DUE</t>
   </si>
   <si>
@@ -272,18 +213,12 @@
     <t>HW05 OUT</t>
   </si>
   <si>
-    <t>HW05: Dapp</t>
-  </si>
-  <si>
     <t>HW07: Project Deliverable 01</t>
   </si>
   <si>
     <t>HW09: Project Deliverable 03</t>
   </si>
   <si>
-    <t>HW09 DUE</t>
-  </si>
-  <si>
     <t>HW06: ML &amp; Project Proposal</t>
   </si>
   <si>
@@ -293,21 +228,57 @@
     <t>Project - Presentations</t>
   </si>
   <si>
-    <t>HW10 OUT</t>
-  </si>
-  <si>
-    <t>HW10: Project Deliverable 04</t>
+    <t>HW06 DUE</t>
+  </si>
+  <si>
+    <t>API Based Architectures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital Transformation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lean Startup and Agile </t>
+  </si>
+  <si>
+    <t>REST and Routes on Web Servers</t>
+  </si>
+  <si>
+    <t>HW00: Install VSCode and Git</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>Container and Cloud</t>
+  </si>
+  <si>
+    <t>HW03: Touching the Cloud</t>
+  </si>
+  <si>
+    <t>HW02:  REST API</t>
+  </si>
+  <si>
+    <t>GE Case Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashes Merkle Trees </t>
+  </si>
+  <si>
+    <t>No Class</t>
+  </si>
+  <si>
+    <t>ES6 JavaScript Practice Coding</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mm\ dd"/>
     <numFmt numFmtId="165" formatCode="[$-409]ddd\,\ mmm\ d"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -455,6 +426,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1000,7 +984,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="40" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="40" applyFont="1"/>
@@ -1061,11 +1045,6 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="9" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="14" fillId="9" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1075,6 +1054,12 @@
     <xf numFmtId="164" fontId="13" fillId="4" borderId="4" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="13" fillId="4" borderId="5" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="13" fillId="4" borderId="6" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="24" fillId="9" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="24" fillId="9" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="392">
     <cellStyle name="Accent1" xfId="41" builtinId="29"/>
@@ -1804,14 +1789,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A44" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="56.1640625" customWidth="1"/>
@@ -1820,25 +1805,25 @@
     <col min="6" max="6" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-    </row>
-    <row r="3" spans="1:29" ht="23" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-    </row>
-    <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="23">
+      <c r="A1" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+    </row>
+    <row r="3" spans="1:29" ht="23">
+      <c r="A3" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
+    </row>
+    <row r="4" spans="1:29" s="4" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1852,7 +1837,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
@@ -1879,18 +1864,18 @@
       <c r="AB4"/>
       <c r="AC4"/>
     </row>
-    <row r="5" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" s="2" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="13">
-        <v>42985</v>
+        <v>44075</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5"/>
@@ -1918,38 +1903,42 @@
       <c r="AB5"/>
       <c r="AC5"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29">
       <c r="A6" s="6"/>
       <c r="B6" s="14"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+    <row r="7" spans="1:29">
+      <c r="A7" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29">
       <c r="A8" s="6"/>
       <c r="B8" s="14"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" s="1" customFormat="1">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="16">
-        <v>42990</v>
+        <v>44077</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9"/>
@@ -1977,22 +1966,22 @@
       <c r="AB9"/>
       <c r="AC9"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29">
       <c r="A10" s="6"/>
       <c r="B10" s="14"/>
       <c r="C10" s="10"/>
       <c r="D10" s="7"/>
       <c r="E10" s="27"/>
     </row>
-    <row r="11" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" s="1" customFormat="1">
       <c r="A11" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="16">
-        <v>42992</v>
+        <v>44082</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="28"/>
@@ -2021,19 +2010,19 @@
       <c r="AB11"/>
       <c r="AC11"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29">
       <c r="A12" s="6"/>
       <c r="B12" s="14"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" s="1" customFormat="1">
       <c r="A13" s="8"/>
       <c r="B13" s="15"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13"/>
@@ -2061,44 +2050,44 @@
       <c r="AB13"/>
       <c r="AC13"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29">
       <c r="A14" s="6"/>
       <c r="B14" s="14"/>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:29" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" s="25" customFormat="1">
       <c r="A15" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B15" s="16">
-        <v>42997</v>
+        <v>44084</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E15" s="19"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29">
       <c r="A16" s="6"/>
       <c r="B16" s="14"/>
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" s="1" customFormat="1">
       <c r="A17" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="16">
-        <v>42999</v>
+        <v>44089</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -2127,39 +2116,39 @@
       <c r="AB17"/>
       <c r="AC17"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29">
       <c r="A18" s="10"/>
       <c r="B18" s="17"/>
       <c r="C18" s="39"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29">
       <c r="A19" s="8"/>
       <c r="B19" s="15"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29">
       <c r="A20" s="10"/>
       <c r="B20" s="17"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="1:29" ht="23" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-    </row>
-    <row r="22" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="23">
+      <c r="A21" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="46"/>
+    </row>
+    <row r="22" spans="1:29" s="4" customFormat="1">
       <c r="A22" s="12" t="s">
         <v>0</v>
       </c>
@@ -2196,18 +2185,18 @@
       <c r="AB22"/>
       <c r="AC22"/>
     </row>
-    <row r="23" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" s="4" customFormat="1">
       <c r="A23" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="16">
-        <v>43004</v>
+        <v>44091</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23"/>
@@ -2235,7 +2224,7 @@
       <c r="AB23"/>
       <c r="AC23"/>
     </row>
-    <row r="24" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" s="4" customFormat="1">
       <c r="A24" s="10"/>
       <c r="B24" s="17"/>
       <c r="C24" s="11"/>
@@ -2266,15 +2255,15 @@
       <c r="AB24"/>
       <c r="AC24"/>
     </row>
-    <row r="25" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" s="4" customFormat="1">
       <c r="A25" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="16">
-        <v>43006</v>
+        <v>44096</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -2303,119 +2292,119 @@
       <c r="AB25"/>
       <c r="AC25"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29">
       <c r="A26" s="10"/>
       <c r="B26" s="17"/>
       <c r="C26" s="11"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29">
       <c r="A27" s="8"/>
       <c r="B27" s="15"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29">
       <c r="A28" s="10"/>
       <c r="B28" s="17"/>
       <c r="C28" s="11"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29">
       <c r="A29" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="16">
-        <v>43011</v>
+        <v>44103</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29">
       <c r="A30" s="6"/>
       <c r="B30" s="14"/>
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:29" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" s="34" customFormat="1">
       <c r="A31" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="32">
-        <v>43013</v>
+        <v>44105</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29">
       <c r="A32" s="6"/>
       <c r="B32" s="14"/>
       <c r="C32" s="6"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29">
       <c r="A33" s="8"/>
       <c r="B33" s="15"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29">
       <c r="A34" s="6"/>
       <c r="B34" s="14"/>
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="20">
-        <v>43018</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29">
+      <c r="A35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="16">
+        <v>44110</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:29">
       <c r="A36" s="30"/>
       <c r="B36" s="14"/>
       <c r="C36" s="6"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:29" ht="23" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="49"/>
-    </row>
-    <row r="38" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" ht="23">
+      <c r="A37" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="46"/>
+    </row>
+    <row r="38" spans="1:29" s="4" customFormat="1">
       <c r="A38" s="12" t="s">
         <v>0</v>
       </c>
@@ -2452,161 +2441,157 @@
       <c r="AB38"/>
       <c r="AC38"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29">
       <c r="A39" s="9" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B39" s="16">
-        <v>43020</v>
+        <v>44112</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29">
       <c r="A40" s="6"/>
       <c r="B40" s="14"/>
       <c r="C40" s="6"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29">
       <c r="A41" s="8"/>
       <c r="B41" s="15"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="E41" s="8"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="16">
-        <v>43025</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E43" s="26"/>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29">
+      <c r="A43" s="19"/>
+      <c r="B43" s="20">
+        <v>44117</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:29">
       <c r="A44" s="6"/>
       <c r="B44" s="14"/>
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
       <c r="E44" s="27"/>
     </row>
-    <row r="45" spans="1:29" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" s="34" customFormat="1">
       <c r="A45" s="31" t="s">
         <v>12</v>
       </c>
       <c r="B45" s="32">
-        <v>43027</v>
+        <v>44119</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D45" s="31"/>
       <c r="E45" s="35"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29">
       <c r="A46" s="6"/>
       <c r="B46" s="14"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29">
       <c r="A47" s="8"/>
       <c r="B47" s="15"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E47" s="29"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29">
       <c r="A48" s="6"/>
       <c r="B48" s="14"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B49" s="13">
-        <v>43032</v>
+        <v>44124</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" s="6"/>
       <c r="B50" s="14"/>
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B51" s="13">
-        <v>43034</v>
+        <v>44126</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" s="6"/>
       <c r="B52" s="14"/>
       <c r="C52" s="6"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" s="22"/>
       <c r="B53" s="23"/>
       <c r="C53" s="22"/>
       <c r="D53" s="8" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" s="6"/>
       <c r="B54" s="14"/>
       <c r="C54" s="6"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:5" ht="23" x14ac:dyDescent="0.25">
-      <c r="A55" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="49"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="23">
+      <c r="A55" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="46"/>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="12" t="s">
         <v>0</v>
       </c>
@@ -2619,138 +2604,134 @@
       </c>
       <c r="E56" s="12"/>
     </row>
-    <row r="57" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" s="34" customFormat="1">
       <c r="A57" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B57" s="32">
-        <v>43039</v>
+        <v>44131</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E57" s="33"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" s="6"/>
       <c r="B58" s="14"/>
       <c r="C58" s="6"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" s="34" customFormat="1">
       <c r="A59" s="31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B59" s="32">
-        <v>43041</v>
+        <v>44133</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="D59" s="33"/>
       <c r="E59" s="33"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" s="6"/>
       <c r="B60" s="14"/>
       <c r="C60" s="6"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" s="8"/>
       <c r="B61" s="15"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="D61" s="8"/>
       <c r="E61" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="6"/>
       <c r="B62" s="14"/>
       <c r="C62" s="6"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
     </row>
-    <row r="63" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" s="34" customFormat="1">
       <c r="A63" s="36" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B63" s="37">
-        <v>42682</v>
+        <v>44138</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E63" s="36"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" s="6"/>
       <c r="B64" s="14"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="1:29" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" s="34" customFormat="1">
       <c r="A65" s="36" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B65" s="37">
-        <v>43048</v>
+        <v>44140</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D65" s="38"/>
       <c r="E65" s="38"/>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29">
       <c r="A66" s="6"/>
       <c r="B66" s="14"/>
       <c r="C66" s="6"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29">
       <c r="A67" s="8"/>
       <c r="B67" s="15"/>
       <c r="C67" s="24"/>
-      <c r="D67" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="D67" s="8"/>
       <c r="E67" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29">
       <c r="A68" s="6"/>
       <c r="B68" s="14"/>
       <c r="C68" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
     </row>
-    <row r="69" spans="1:29" ht="23" x14ac:dyDescent="0.25">
-      <c r="A69" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="B69" s="48"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="49"/>
-    </row>
-    <row r="70" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" ht="23">
+      <c r="A69" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="45"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="46"/>
+    </row>
+    <row r="70" spans="1:29" s="4" customFormat="1">
       <c r="A70" s="12" t="s">
         <v>0</v>
       </c>
@@ -2787,202 +2768,188 @@
       <c r="AB70"/>
       <c r="AC70"/>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29">
       <c r="A71" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B71" s="16">
-        <v>43053</v>
+        <v>44145</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29">
       <c r="A72" s="6"/>
       <c r="B72" s="14"/>
       <c r="C72" s="6"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
     </row>
-    <row r="73" spans="1:29" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" s="34" customFormat="1">
       <c r="A73" s="31" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B73" s="32">
-        <v>43055</v>
+        <v>43051</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D73" s="31"/>
       <c r="E73" s="31"/>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29">
       <c r="A74" s="6"/>
       <c r="B74" s="14"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29">
       <c r="A75" s="8"/>
       <c r="B75" s="15"/>
       <c r="C75" s="8"/>
-      <c r="D75" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="D75" s="8"/>
       <c r="E75" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29">
       <c r="A76" s="6"/>
       <c r="B76" s="14"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29">
       <c r="A77" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B77" s="13">
-        <v>43060</v>
+        <v>44152</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E77" s="19"/>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29">
       <c r="A78" s="6"/>
       <c r="B78" s="14"/>
       <c r="C78" s="6"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
     </row>
-    <row r="79" spans="1:29" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B79" s="41">
-        <v>43062</v>
-      </c>
-      <c r="C79" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D79" s="38"/>
-      <c r="E79" s="38"/>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" s="50" customFormat="1">
+      <c r="A79" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" s="48">
+        <v>44154</v>
+      </c>
+      <c r="C79" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="47"/>
+      <c r="E79" s="47"/>
+    </row>
+    <row r="80" spans="1:29">
       <c r="A80" s="6"/>
       <c r="B80" s="14"/>
       <c r="C80" s="6"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" s="8"/>
       <c r="B81" s="15"/>
       <c r="C81" s="8"/>
-      <c r="D81" s="8" t="s">
-        <v>89</v>
-      </c>
+      <c r="D81" s="8"/>
       <c r="E81" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="6"/>
       <c r="B82" s="14"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B83" s="16">
         <v>43067</v>
       </c>
-      <c r="C83" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C83" s="9"/>
+      <c r="D83" s="5"/>
       <c r="E83" s="5"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="C84" s="6"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B85" s="16">
         <v>43069</v>
       </c>
-      <c r="C85" s="21" t="s">
-        <v>22</v>
-      </c>
+      <c r="C85" s="21"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="C86" s="6"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87" s="8"/>
       <c r="B87" s="15"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B89" s="16">
         <v>43074</v>
       </c>
-      <c r="C89" s="9" t="s">
-        <v>22</v>
-      </c>
+      <c r="C89" s="9"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B91" s="16">
         <v>43076</v>
       </c>
-      <c r="C91" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="C91" s="9"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93" s="8"/>
       <c r="B93" s="15"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E93" s="8"/>
     </row>
